--- a/scraper/top_remaining_spreadsheets_states/top_remaining_DC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_DC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Pocket Change</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>The Crown Jewels</t>
@@ -86,24 +86,18 @@
     <t>Handbag Ticket</t>
   </si>
   <si>
+    <t>Game of Riches</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
     <t>Suits</t>
   </si>
   <si>
-    <t>UNO</t>
-  </si>
-  <si>
-    <t>Game of Riches</t>
-  </si>
-  <si>
     <t xml:space="preserve">Double Match </t>
   </si>
   <si>
-    <t>3 Grand</t>
-  </si>
-  <si>
-    <t>2019-02-08</t>
-  </si>
-  <si>
     <t>Racing Presidents</t>
   </si>
   <si>
@@ -131,6 +125,9 @@
     <t>DC Loteria</t>
   </si>
   <si>
+    <t>2019-03-09</t>
+  </si>
+  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -140,21 +137,21 @@
     <t>Washington Capitals® 2018 Stanley Cup Champions™</t>
   </si>
   <si>
+    <t xml:space="preserve">$500 Frenzy </t>
+  </si>
+  <si>
+    <t>Hit the Jackpot</t>
+  </si>
+  <si>
+    <t>DC Flag</t>
+  </si>
+  <si>
+    <t>$10, $20 or $50!</t>
+  </si>
+  <si>
     <t>Lucky Numbers</t>
   </si>
   <si>
-    <t xml:space="preserve">$500 Frenzy </t>
-  </si>
-  <si>
-    <t>Hit the Jackpot</t>
-  </si>
-  <si>
-    <t>DC Flag</t>
-  </si>
-  <si>
-    <t>$10, $20 or $50!</t>
-  </si>
-  <si>
     <t>DC LOVE</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>Extreme Cash Blast</t>
-  </si>
-  <si>
-    <t>Capitol Cash</t>
   </si>
   <si>
     <t>Bank On It!</t>
@@ -563,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +679,7 @@
         <v>1405</v>
       </c>
       <c r="E6">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -882,10 +876,10 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -918,14 +912,14 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
+      <c r="C18">
+        <v>202</v>
       </c>
       <c r="D18">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -938,14 +932,14 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>202</v>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="E19">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -982,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1355</v>
+        <v>1384</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -999,10 +993,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1016,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>1401</v>
+        <v>1333</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1036,13 +1030,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
       <c r="D24">
-        <v>1333</v>
+        <v>1387</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1056,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>1387</v>
+        <v>1412</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1076,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1096,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>1398</v>
+        <v>1357</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1116,19 +1110,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>1312</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>36</v>
-      </c>
-      <c r="D28">
-        <v>1357</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1136,16 +1130,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>1312</v>
+        <v>1379</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1156,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>1379</v>
+        <v>1397</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1176,16 +1170,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1196,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1216,16 +1210,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="E33">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1236,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
       <c r="D34">
-        <v>1399</v>
+        <v>1375</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1256,13 +1250,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1276,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="E36">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1296,13 +1290,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37">
-        <v>1378</v>
+        <v>1402</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1316,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1336,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1356,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1376,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1381</v>
+        <v>1334</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1396,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1334</v>
+        <v>1386</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1416,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1386</v>
+        <v>1404</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1436,13 +1430,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1456,16 +1450,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1410</v>
+        <v>1359</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1476,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>1359</v>
+        <v>1377</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1496,13 +1490,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1516,13 +1510,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48">
-        <v>1388</v>
+        <v>1324</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1536,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1324</v>
+        <v>1376</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1556,19 +1550,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1576,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1596,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52">
-        <v>1325</v>
+        <v>1407</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1616,16 +1610,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1636,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="E54">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1656,58 +1650,18 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>1361</v>
+        <v>1395</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56">
-        <v>1392</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57">
-        <v>1395</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_DC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_DC.xlsx
@@ -41,19 +41,22 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>The Crown Jewels</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>Pocket Change</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>The Crown Jewels</t>
+    <t>Cash on the Spot</t>
   </si>
   <si>
     <t>Roll'Em</t>
   </si>
   <si>
-    <t>Cash on the Spot</t>
+    <t>Silver Dollar</t>
   </si>
   <si>
     <t>$50 Frenzy</t>
@@ -83,15 +86,15 @@
     <t>5X The Money</t>
   </si>
   <si>
+    <t>UNO</t>
+  </si>
+  <si>
     <t>Handbag Ticket</t>
   </si>
   <si>
     <t>Game of Riches</t>
   </si>
   <si>
-    <t>UNO</t>
-  </si>
-  <si>
     <t>Suits</t>
   </si>
   <si>
@@ -122,12 +125,6 @@
     <t>Bingo Boxes</t>
   </si>
   <si>
-    <t>DC Loteria</t>
-  </si>
-  <si>
-    <t>2019-03-09</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -137,21 +134,24 @@
     <t>Washington Capitals® 2018 Stanley Cup Champions™</t>
   </si>
   <si>
+    <t>Hit the Jackpot</t>
+  </si>
+  <si>
+    <t>Washington Nationals ®</t>
+  </si>
+  <si>
     <t xml:space="preserve">$500 Frenzy </t>
   </si>
   <si>
-    <t>Hit the Jackpot</t>
-  </si>
-  <si>
     <t>DC Flag</t>
   </si>
   <si>
+    <t>Lucky Numbers</t>
+  </si>
+  <si>
     <t>$10, $20 or $50!</t>
   </si>
   <si>
-    <t>Lucky Numbers</t>
-  </si>
-  <si>
     <t>DC LOVE</t>
   </si>
   <si>
@@ -167,31 +167,31 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Super Ticket 7s</t>
+  </si>
+  <si>
+    <t>Aces High</t>
+  </si>
+  <si>
+    <t>High Roller's Fortune</t>
+  </si>
+  <si>
+    <t>Red Hot Riches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Fortune </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Hot 10s </t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Extreme Cash Blast</t>
+  </si>
+  <si>
     <t>Jackpot</t>
-  </si>
-  <si>
-    <t>Super Ticket 7s</t>
-  </si>
-  <si>
-    <t>Aces High</t>
-  </si>
-  <si>
-    <t>High Roller's Fortune</t>
-  </si>
-  <si>
-    <t>Red Hot Riches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Fortune </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Hot 10s </t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Extreme Cash Blast</t>
   </si>
   <si>
     <t>Bank On It!</t>
@@ -557,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1354</v>
+        <v>1363</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1405</v>
+        <v>1415</v>
       </c>
       <c r="E6">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -696,10 +696,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1389</v>
+        <v>1405</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -732,11 +732,11 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>333</v>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>1373</v>
+        <v>1400</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -752,11 +752,11 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>333</v>
       </c>
       <c r="D10">
-        <v>1345</v>
+        <v>1373</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
       <c r="D14">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -850,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1349</v>
+        <v>1390</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -870,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -890,13 +890,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>1393</v>
+        <v>1349</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -910,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>202</v>
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="E18">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -930,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>202</v>
       </c>
       <c r="D19">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -950,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>1380</v>
+        <v>1403</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -970,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -990,13 +990,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
       <c r="D23">
-        <v>1333</v>
+        <v>1401</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1030,13 +1030,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24">
-        <v>1387</v>
+        <v>1333</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1050,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1070,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1090,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27">
-        <v>1357</v>
+        <v>1398</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1110,19 +1110,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28">
-        <v>1312</v>
+        <v>1357</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1130,10 +1130,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
       </c>
       <c r="D29">
         <v>1379</v>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>1397</v>
@@ -1170,16 +1170,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="E31">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1190,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>1399</v>
+        <v>1416</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1210,16 +1210,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1230,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="E34">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1250,10 +1250,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>1413</v>
@@ -1270,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1290,13 +1290,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>1402</v>
+        <v>1378</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>1372</v>
+        <v>1402</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1373,13 +1373,13 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>1334</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1393,7 +1393,7 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>1386</v>
@@ -1413,7 +1413,7 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <v>1404</v>
@@ -1433,7 +1433,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>1410</v>
@@ -1453,7 +1453,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <v>1359</v>
@@ -1473,7 +1473,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>1377</v>
@@ -1493,7 +1493,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>1388</v>
@@ -1513,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>1324</v>
@@ -1533,10 +1533,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>1325</v>
+        <v>1376</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>1374</v>
+        <v>1325</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1593,13 +1593,13 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>1407</v>
+        <v>1374</v>
       </c>
       <c r="E52">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1613,13 +1613,13 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>1361</v>
+        <v>1407</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1633,10 +1633,10 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54">
-        <v>1392</v>
+        <v>1361</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1650,18 +1650,38 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>1392</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
         <v>66</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>67</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>1395</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>9</v>
       </c>
     </row>
